--- a/data/Datensatz_aktuell.xlsx
+++ b/data/Datensatz_aktuell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibamberg-my.sharepoint.com/personal/julina_pletziger_stud_uni-bamberg_de/Documents/Dokumente/Uni/Exo und SETI/Projekte/Veröffentlichung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BED8C1-37DF-4116-9269-99695C4820C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57628274-3707-4B6A-8BCB-4AE07830DFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FC2BE0E-5E50-452F-AD35-37746E2C9DD7}"/>
   </bookViews>
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E7B6D-A456-4B26-BC3F-D548F61D5FEB}">
   <dimension ref="A1:S623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q392" sqref="A392:Q392"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q425" sqref="Q425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -3050,7 +3050,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="129.6">
+    <row r="14" spans="1:18" ht="144">
       <c r="A14" s="8">
         <v>44564</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="43.15">
+    <row r="25" spans="1:18" ht="57.6">
       <c r="A25" s="8">
         <v>44566</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="1:18" ht="129.6">
+    <row r="39" spans="1:18" ht="144">
       <c r="A39" s="8">
         <v>44567</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="Q42" s="22"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="28.9">
+    <row r="43" spans="1:18" ht="43.15">
       <c r="A43" s="8">
         <v>44568</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" spans="1:18" ht="28.9">
+    <row r="77" spans="1:18" ht="43.15">
       <c r="A77" s="8">
         <v>44590</v>
       </c>
@@ -8564,7 +8564,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="7"/>
     </row>
-    <row r="120" spans="1:18" ht="115.15">
+    <row r="120" spans="1:18" ht="129.6">
       <c r="A120" s="8">
         <v>44598</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="Q147" s="22"/>
       <c r="R147" s="7"/>
     </row>
-    <row r="148" spans="1:18" ht="86.45">
+    <row r="148" spans="1:18" ht="100.9">
       <c r="A148" s="8">
         <v>44605</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="Q150" s="22"/>
       <c r="R150" s="7"/>
     </row>
-    <row r="151" spans="1:18" ht="144">
+    <row r="151" spans="1:18" ht="158.44999999999999">
       <c r="A151" s="8">
         <v>44605</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="Q216" s="22"/>
       <c r="R216" s="7"/>
     </row>
-    <row r="217" spans="1:18" ht="28.9">
+    <row r="217" spans="1:18" ht="43.15">
       <c r="A217" s="8">
         <v>44628</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="Q244" s="22"/>
       <c r="R244" s="7"/>
     </row>
-    <row r="245" spans="1:18" ht="28.9">
+    <row r="245" spans="1:18" ht="43.15">
       <c r="A245" s="8">
         <v>44644</v>
       </c>
@@ -15274,7 +15274,7 @@
       <c r="Q248" s="22"/>
       <c r="R248" s="7"/>
     </row>
-    <row r="249" spans="1:18" ht="86.45">
+    <row r="249" spans="1:18" ht="115.15">
       <c r="A249" s="8">
         <v>44645</v>
       </c>
@@ -17980,7 +17980,7 @@
       <c r="Q300" s="22"/>
       <c r="R300" s="7"/>
     </row>
-    <row r="301" spans="1:18" ht="28.9">
+    <row r="301" spans="1:18" ht="43.15">
       <c r="A301" s="8">
         <v>44654</v>
       </c>
@@ -18240,7 +18240,7 @@
       <c r="Q305" s="23"/>
       <c r="R305" s="7"/>
     </row>
-    <row r="306" spans="1:18" ht="28.9">
+    <row r="306" spans="1:18" ht="43.15">
       <c r="A306" s="8">
         <v>44654</v>
       </c>
@@ -20535,7 +20535,7 @@
       <c r="Q349" s="22"/>
       <c r="R349" s="7"/>
     </row>
-    <row r="350" spans="1:18" ht="57.6">
+    <row r="350" spans="1:18" ht="72">
       <c r="A350" s="8">
         <v>44690</v>
       </c>
@@ -24059,7 +24059,9 @@
       <c r="N425" s="12"/>
       <c r="O425" s="13"/>
       <c r="P425" s="13"/>
-      <c r="Q425" s="22"/>
+      <c r="Q425" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:17" ht="57.6">
       <c r="A426" s="8">
@@ -24569,7 +24571,7 @@
       <c r="P445" s="13"/>
       <c r="Q445" s="23"/>
     </row>
-    <row r="446" spans="1:17" ht="100.9">
+    <row r="446" spans="1:17" ht="115.15">
       <c r="A446" s="8">
         <v>45189</v>
       </c>
@@ -24750,7 +24752,7 @@
       <c r="P452" s="13"/>
       <c r="Q452" s="23"/>
     </row>
-    <row r="453" spans="1:17" ht="100.9">
+    <row r="453" spans="1:17" ht="115.15">
       <c r="A453" s="8">
         <v>45190</v>
       </c>
@@ -25885,7 +25887,7 @@
       <c r="P497" s="13"/>
       <c r="Q497" s="23"/>
     </row>
-    <row r="498" spans="1:17" ht="72">
+    <row r="498" spans="1:17" ht="86.45">
       <c r="A498" s="8">
         <v>45206</v>
       </c>
@@ -26239,7 +26241,7 @@
       <c r="P511" s="13"/>
       <c r="Q511" s="23"/>
     </row>
-    <row r="512" spans="1:17" ht="43.15">
+    <row r="512" spans="1:17" ht="57.6">
       <c r="A512" s="8">
         <v>45214</v>
       </c>
@@ -26959,7 +26961,7 @@
       <c r="P539" s="13"/>
       <c r="Q539" s="23"/>
     </row>
-    <row r="540" spans="1:17" ht="43.15">
+    <row r="540" spans="1:17" ht="57.6">
       <c r="A540" s="8">
         <v>45223</v>
       </c>
@@ -27034,7 +27036,7 @@
       <c r="P542" s="13"/>
       <c r="Q542" s="23"/>
     </row>
-    <row r="543" spans="1:17" ht="100.9">
+    <row r="543" spans="1:17" ht="115.15">
       <c r="A543" s="8">
         <v>45225</v>
       </c>
@@ -27267,7 +27269,7 @@
       <c r="P551" s="13"/>
       <c r="Q551" s="23"/>
     </row>
-    <row r="552" spans="1:17" ht="115.15">
+    <row r="552" spans="1:17" ht="129.6">
       <c r="A552" s="8">
         <v>45227</v>
       </c>
@@ -27887,7 +27889,7 @@
       <c r="P575" s="13"/>
       <c r="Q575" s="23"/>
     </row>
-    <row r="576" spans="1:17" ht="43.15">
+    <row r="576" spans="1:17" ht="57.6">
       <c r="A576" s="8">
         <v>45233</v>
       </c>
@@ -27991,7 +27993,7 @@
       <c r="P579" s="13"/>
       <c r="Q579" s="23"/>
     </row>
-    <row r="580" spans="1:17" ht="72">
+    <row r="580" spans="1:17" ht="86.45">
       <c r="A580" s="8">
         <v>45233</v>
       </c>
